--- a/IOVA.xlsx
+++ b/IOVA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E4BBAF-A2D4-4608-BAFF-29E77AC38277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA40ADA1-CC33-4B9E-988B-D9445E53963C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25500" yWindow="1260" windowWidth="25155" windowHeight="18300" activeTab="2" xr2:uid="{1054D507-1308-4FD4-B51E-7B0D91C597A0}"/>
+    <workbookView xWindow="-24390" yWindow="3735" windowWidth="24480" windowHeight="17115" activeTab="2" xr2:uid="{1054D507-1308-4FD4-B51E-7B0D91C597A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,8 +37,26 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={998ABA84-464F-443C-9A08-EB68E16B19E1}</author>
+  </authors>
+  <commentList>
+    <comment ref="H7" authorId="0" shapeId="0" xr:uid="{998ABA84-464F-443C-9A08-EB68E16B19E1}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    25 in Q2</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="98">
   <si>
     <t>Price</t>
   </si>
@@ -94,27 +112,18 @@
     <t>Regimen</t>
   </si>
   <si>
-    <t>administer after lymphodepletion with IL-2</t>
-  </si>
-  <si>
     <t>CD4+ CD8+ T cells based on resected tumor</t>
   </si>
   <si>
     <t>Clinical Trials</t>
   </si>
   <si>
-    <t>Phase I/II n=111 metastatic melanoma</t>
-  </si>
-  <si>
     <t>n=82 per protocol</t>
   </si>
   <si>
     <t>Manufacturing</t>
   </si>
   <si>
-    <t>34 days</t>
-  </si>
-  <si>
     <t>32% RR, 4% CR</t>
   </si>
   <si>
@@ -130,18 +139,9 @@
     <t>Proleukin</t>
   </si>
   <si>
-    <t>Phase II IOV-COM-202</t>
-  </si>
-  <si>
     <t>Phase III TILVANCE-301</t>
   </si>
   <si>
-    <t>Cohort A 30% CR</t>
-  </si>
-  <si>
-    <t>Phase II IOV-LUN-202</t>
-  </si>
-  <si>
     <t>Revenue</t>
   </si>
   <si>
@@ -197,13 +197,166 @@
   </si>
   <si>
     <t>EPS</t>
+  </si>
+  <si>
+    <t>22-day manufacturing process, 34 days for delivery</t>
+  </si>
+  <si>
+    <t>Primary Endpoint: ORR</t>
+  </si>
+  <si>
+    <t>n=66 mean 3.3 prior therapies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  36% ORR (2 CR, 22 PR)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  80% DCR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    mDOR &gt;18.7months</t>
+  </si>
+  <si>
+    <t>Metastatic Melanoma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PD-1 refractory cohort 41% ORR, 81% DCR (40-65% of patients have primary resistance of PD-1)</t>
+  </si>
+  <si>
+    <t>tumor resection followed by ex vivo expansion</t>
+  </si>
+  <si>
+    <t>Generic</t>
+  </si>
+  <si>
+    <t>lifileucel</t>
+  </si>
+  <si>
+    <t>Amtagvi, LN-144</t>
+  </si>
+  <si>
+    <t>Phase II n=111 3L+ metastatic melanoma - NCT02360579</t>
+  </si>
+  <si>
+    <t>Gen 1 vs. Gen 2</t>
+  </si>
+  <si>
+    <t>Study start: 9/2015, n=178; 4 cohorts, Gen 1, Gen 2, retreatment, Gen2 (open)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  4/2017-1/2019 - cohort 2? At 26 sites</t>
+  </si>
+  <si>
+    <t>Single infusion of 1-150 10^9 lifileucel after cyclophosphamide, fludarabine. 6 doses of high-dose IL-2 after.</t>
+  </si>
+  <si>
+    <t>$515,000 price.</t>
+  </si>
+  <si>
+    <t>Amtagvi Price</t>
+  </si>
+  <si>
+    <t>Phase III "KEYNOTE-006" - pembrolizumab (Keytruda, MRK) vs ipilimumab (Yervoy, BMY)</t>
+  </si>
+  <si>
+    <t>median OS for ipilimumab 15.9 months</t>
+  </si>
+  <si>
+    <t>median OS for pembro 32.7 months, mPFS 9.4 months</t>
+  </si>
+  <si>
+    <t>Available for Treatment</t>
+  </si>
+  <si>
+    <t>Market Share</t>
+  </si>
+  <si>
+    <t>Patients</t>
+  </si>
+  <si>
+    <t>Maturity</t>
+  </si>
+  <si>
+    <t>ROIC</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>NPV</t>
+  </si>
+  <si>
+    <t>Phase II "IOV-COM-202" - 1L with Checkpoint</t>
+  </si>
+  <si>
+    <t>Complete enrollment with data in 2025, BLA in 2026</t>
+  </si>
+  <si>
+    <t>Phase II "IOV-END-201" endometrial cancer</t>
+  </si>
+  <si>
+    <t>IOV-4001</t>
+  </si>
+  <si>
+    <t>PD-1 inactivated TIL</t>
+  </si>
+  <si>
+    <t>Melanoma</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>Phase</t>
+  </si>
+  <si>
+    <t>IOV-3001</t>
+  </si>
+  <si>
+    <t>IL-2</t>
+  </si>
+  <si>
+    <t>IOV-5001</t>
+  </si>
+  <si>
+    <t>IL-12 cell therapy</t>
+  </si>
+  <si>
+    <t>Regulatory</t>
+  </si>
+  <si>
+    <t>6/28/24 BLA submitted</t>
+  </si>
+  <si>
+    <t>2/16/24 FDA approval</t>
+  </si>
+  <si>
+    <t>Cohort A 30% CR, 65% ORR</t>
+  </si>
+  <si>
+    <t>partial clinical hold</t>
+  </si>
+  <si>
+    <t>LN-145 used?</t>
+  </si>
+  <si>
+    <t>Phase II "IOV-LUN-202" n=120 post-anti-PD-1 NSCLC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ramucirumab </t>
+  </si>
+  <si>
+    <t>nintedanib</t>
+  </si>
+  <si>
+    <t>n=23 26% ORR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -230,6 +383,12 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -340,7 +499,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -362,7 +521,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -373,10 +531,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -389,6 +547,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -407,6 +576,210 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>11906</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C271BA2-28CE-86CB-6E72-AC6A317526DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5405437" y="23812"/>
+          <a:ext cx="0" cy="5613797"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>148828</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BC35277-3BC7-41B8-897D-DE0040008A13}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10879931" y="0"/>
+          <a:ext cx="0" cy="5613797"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>29321</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>174687</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>108239</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{036D80B1-11AF-2016-E865-C52B235FEED9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3839765" y="4369149"/>
+          <a:ext cx="5008625" cy="2650668"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>33363</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>36196</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>127532</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6418034E-391A-B85E-FA02-139A768B4F8B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1253754" y="8822532"/>
+          <a:ext cx="6848926" cy="5449624"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Martin Shkreli" id="{7751D084-A6E8-45AD-80D5-700049C57ECD}" userId="9ffda80931a57275" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -724,13 +1097,19 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="H7" dT="2024-08-21T17:47:34.72" personId="{7751D084-A6E8-45AD-80D5-700049C57ECD}" id="{998ABA84-464F-443C-9A08-EB68E16B19E1}">
+    <text>25 in Q2</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A1DDB4A-E1A7-46DA-B6C4-44E49BB99810}">
   <dimension ref="B2:J11"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -742,19 +1121,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="17"/>
+      <c r="F2" s="16"/>
       <c r="H2" t="s">
         <v>0</v>
       </c>
@@ -763,19 +1142,19 @@
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="17">
         <v>45338</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="20"/>
+      <c r="F3" s="19"/>
       <c r="H3" t="s">
         <v>1</v>
       </c>
@@ -788,12 +1167,11 @@
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="20"/>
+        <v>26</v>
+      </c>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="19"/>
       <c r="H4" t="s">
         <v>2</v>
       </c>
@@ -803,11 +1181,13 @@
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B5" s="10"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="20"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="16"/>
       <c r="H5" t="s">
         <v>3</v>
       </c>
@@ -820,11 +1200,19 @@
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="10"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="20"/>
+      <c r="B6" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="F6" s="19"/>
       <c r="H6" t="s">
         <v>4</v>
       </c>
@@ -836,11 +1224,14 @@
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="12"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="22"/>
+      <c r="B7" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="F7" s="19"/>
       <c r="H7" t="s">
         <v>5</v>
       </c>
@@ -849,6 +1240,17 @@
         <v>2802.3101819199996</v>
       </c>
     </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B8" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8" s="21"/>
+    </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="H9" t="s">
         <v>6</v>
@@ -862,7 +1264,7 @@
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="H11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -874,237 +1276,1209 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{940CD409-040D-4731-9469-9E62BEA01EC6}">
-  <dimension ref="A1:J17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{940CD409-040D-4731-9469-9E62BEA01EC6}">
+  <dimension ref="A1:CZ25"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G17" sqref="G17"/>
+      <selection pane="bottomRight" activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
     <col min="3" max="10" width="9.140625" style="1"/>
+    <col min="27" max="27" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C2" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2">
+        <f t="shared" ref="L2:P2" si="0">+M2-1</f>
+        <v>2019</v>
+      </c>
+      <c r="M2">
+        <f t="shared" si="0"/>
+        <v>2020</v>
+      </c>
+      <c r="N2">
+        <f t="shared" si="0"/>
+        <v>2021</v>
+      </c>
+      <c r="O2">
+        <f t="shared" si="0"/>
+        <v>2022</v>
+      </c>
+      <c r="P2">
+        <f>+Q2-1</f>
+        <v>2023</v>
+      </c>
+      <c r="Q2">
+        <v>2024</v>
+      </c>
+      <c r="R2">
+        <v>2025</v>
+      </c>
+      <c r="S2">
+        <f>+R2+1</f>
+        <v>2026</v>
+      </c>
+      <c r="T2">
+        <f t="shared" ref="T2:AC2" si="1">+S2+1</f>
+        <v>2027</v>
+      </c>
+      <c r="U2">
+        <f t="shared" si="1"/>
+        <v>2028</v>
+      </c>
+      <c r="V2">
+        <f t="shared" si="1"/>
+        <v>2029</v>
+      </c>
+      <c r="W2">
+        <f t="shared" si="1"/>
+        <v>2030</v>
+      </c>
+      <c r="X2">
+        <f t="shared" si="1"/>
+        <v>2031</v>
+      </c>
+      <c r="Y2">
+        <f t="shared" si="1"/>
+        <v>2032</v>
+      </c>
+      <c r="Z2">
+        <f t="shared" si="1"/>
+        <v>2033</v>
+      </c>
+      <c r="AA2">
+        <f t="shared" si="1"/>
+        <v>2034</v>
+      </c>
+      <c r="AB2">
+        <f t="shared" si="1"/>
+        <v>2035</v>
+      </c>
+      <c r="AC2">
+        <f t="shared" si="1"/>
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="R3">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="S3">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="T3">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="U3">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="V3">
+        <v>0.51500000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+      <c r="L4" s="2">
+        <v>3500</v>
+      </c>
+      <c r="M4" s="2">
+        <v>3500</v>
+      </c>
+      <c r="N4" s="2">
+        <v>3500</v>
+      </c>
+      <c r="O4" s="2">
+        <v>3500</v>
+      </c>
+      <c r="P4" s="2">
+        <v>3500</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>3500</v>
+      </c>
+      <c r="R4" s="2">
+        <v>3500</v>
+      </c>
+      <c r="S4" s="2">
+        <v>5000</v>
+      </c>
+      <c r="T4" s="2">
+        <v>5000</v>
+      </c>
+      <c r="U4" s="2">
+        <v>5000</v>
+      </c>
+      <c r="V4" s="2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" s="2">
+        <f t="shared" ref="L5:Q5" si="2">+L4*0.5</f>
+        <v>1750</v>
+      </c>
+      <c r="M5" s="2">
+        <f t="shared" si="2"/>
+        <v>1750</v>
+      </c>
+      <c r="N5" s="2">
+        <f t="shared" si="2"/>
+        <v>1750</v>
+      </c>
+      <c r="O5" s="2">
+        <f t="shared" si="2"/>
+        <v>1750</v>
+      </c>
+      <c r="P5" s="2">
+        <f t="shared" si="2"/>
+        <v>1750</v>
+      </c>
+      <c r="Q5" s="2">
+        <f t="shared" si="2"/>
+        <v>1750</v>
+      </c>
+      <c r="R5" s="2">
+        <f>+R4*0.5</f>
+        <v>1750</v>
+      </c>
+      <c r="S5" s="2">
+        <f>+S4*0.5</f>
+        <v>2500</v>
+      </c>
+      <c r="T5" s="2">
+        <f>+T4*0.5</f>
+        <v>2500</v>
+      </c>
+      <c r="U5" s="2">
+        <f>+U4*0.5</f>
+        <v>2500</v>
+      </c>
+      <c r="V5" s="2">
+        <f>+V4*0.5</f>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>70</v>
+      </c>
+      <c r="R6" s="25">
+        <v>0.4</v>
+      </c>
+      <c r="S6" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="T6" s="25">
+        <v>0.6</v>
+      </c>
+      <c r="U6" s="25">
+        <v>0.65</v>
+      </c>
+      <c r="V6" s="25">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H7" s="7">
+        <f>+H9/H3</f>
+        <v>24.854368932038835</v>
+      </c>
+      <c r="I7" s="7">
+        <f>+I9/I3</f>
+        <v>77.669902912621353</v>
+      </c>
+      <c r="J7" s="7">
+        <f>+I7+50</f>
+        <v>127.66990291262135</v>
+      </c>
+      <c r="R7" s="2">
+        <f>+R9/R3</f>
+        <v>700</v>
+      </c>
+      <c r="S7" s="2">
+        <f>+S9/S3</f>
+        <v>1250</v>
+      </c>
+      <c r="T7" s="2">
+        <f>+T9/T3</f>
+        <v>1500</v>
+      </c>
+      <c r="U7" s="2">
+        <f>+U9/U3</f>
+        <v>1625</v>
+      </c>
+      <c r="V7" s="2">
+        <f>+V9/V3</f>
+        <v>1749.9999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="H8" s="7">
+        <v>18.3</v>
+      </c>
+      <c r="I8" s="1">
+        <v>18</v>
+      </c>
+      <c r="J8" s="1">
+        <f>+I8</f>
+        <v>18</v>
+      </c>
+      <c r="Q8" s="2">
+        <f>SUM(G8:J8)</f>
+        <v>55.015000000000001</v>
+      </c>
+      <c r="R8" s="2">
+        <f>+Q8*2</f>
+        <v>110.03</v>
+      </c>
+      <c r="S8" s="2">
+        <f>+R8*1.05</f>
+        <v>115.53150000000001</v>
+      </c>
+      <c r="T8" s="2">
+        <f>+S8*1.05</f>
+        <v>121.30807500000002</v>
+      </c>
+      <c r="U8" s="2">
+        <f>+T8*1.05</f>
+        <v>127.37347875000002</v>
+      </c>
+      <c r="V8" s="2">
+        <f>+U8*1.05</f>
+        <v>133.74215268750004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27">
+        <v>0</v>
+      </c>
+      <c r="H9" s="28">
+        <v>12.8</v>
+      </c>
+      <c r="I9" s="27">
         <v>40</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J9" s="28">
+        <f>+J7*J3</f>
+        <v>65.75</v>
+      </c>
+      <c r="Q9" s="29">
+        <f>SUM(G9:J9)</f>
+        <v>118.55</v>
+      </c>
+      <c r="R9" s="29">
+        <f>+R5*R3*R6</f>
+        <v>360.5</v>
+      </c>
+      <c r="S9" s="29">
+        <f>+S5*S3*S6</f>
+        <v>643.75</v>
+      </c>
+      <c r="T9" s="29">
+        <f>+T5*T3*T6</f>
+        <v>772.5</v>
+      </c>
+      <c r="U9" s="29">
+        <f>+U5*U3*U6</f>
+        <v>836.875</v>
+      </c>
+      <c r="V9" s="29">
+        <f>+V5*V3*V6</f>
+        <v>901.24999999999989</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="8">
+        <f>+G9+G8</f>
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="H10" s="8">
+        <f>+H9+H8</f>
+        <v>31.1</v>
+      </c>
+      <c r="I10" s="8">
+        <f>+I9+I8</f>
+        <v>58</v>
+      </c>
+      <c r="J10" s="8">
+        <f>+J9+J8</f>
+        <v>83.75</v>
+      </c>
+      <c r="Q10" s="26">
+        <f>+Q8+Q9</f>
+        <v>173.565</v>
+      </c>
+      <c r="R10" s="26">
+        <f>+R8+R9</f>
+        <v>470.53</v>
+      </c>
+      <c r="S10" s="26">
+        <f>+S8+S9</f>
+        <v>759.28150000000005</v>
+      </c>
+      <c r="T10" s="26">
+        <f>+T8+T9</f>
+        <v>893.80807500000003</v>
+      </c>
+      <c r="U10" s="26">
+        <f>+U8+U9</f>
+        <v>964.24847875</v>
+      </c>
+      <c r="V10" s="26">
+        <f>+V8+V9</f>
+        <v>1034.9921526875</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="7">
+        <v>7.2610000000000001</v>
+      </c>
+      <c r="H11" s="7">
+        <v>31.367999999999999</v>
+      </c>
+      <c r="I11" s="7">
+        <f>+I10*0.3</f>
+        <v>17.399999999999999</v>
+      </c>
+      <c r="J11" s="7">
+        <f>+J10*0.3</f>
+        <v>25.125</v>
+      </c>
+      <c r="R11" s="2">
+        <f>+R10*0.25</f>
+        <v>117.63249999999999</v>
+      </c>
+      <c r="S11" s="2">
+        <f>+S10*0.25</f>
+        <v>189.82037500000001</v>
+      </c>
+      <c r="T11" s="2">
+        <f>+T10*0.25</f>
+        <v>223.45201875000001</v>
+      </c>
+      <c r="U11" s="2">
+        <f>+U10*0.25</f>
+        <v>241.0621196875</v>
+      </c>
+      <c r="V11" s="2">
+        <f>+V10*0.25</f>
+        <v>258.74803817187501</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="7">
+        <f>+G10-G11</f>
+        <v>-6.5460000000000003</v>
+      </c>
+      <c r="H12" s="7">
+        <f>+H10-H11</f>
+        <v>-0.26799999999999713</v>
+      </c>
+      <c r="I12" s="7">
+        <f>+I10-I11</f>
+        <v>40.6</v>
+      </c>
+      <c r="J12" s="7">
+        <f>+J10-J11</f>
+        <v>58.625</v>
+      </c>
+      <c r="R12" s="2">
+        <f>+R10-R11</f>
+        <v>352.89749999999998</v>
+      </c>
+      <c r="S12" s="2">
+        <f>+S10-S11</f>
+        <v>569.46112500000004</v>
+      </c>
+      <c r="T12" s="2">
+        <f>+T10-T11</f>
+        <v>670.35605625000005</v>
+      </c>
+      <c r="U12" s="2">
+        <f>+U10-U11</f>
+        <v>723.18635906250006</v>
+      </c>
+      <c r="V12" s="2">
+        <f>+V10-V11</f>
+        <v>776.24411451562503</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="7">
+        <v>79.783000000000001</v>
+      </c>
+      <c r="H13" s="7">
+        <v>62.084000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="7">
+        <v>31.393000000000001</v>
+      </c>
+      <c r="H14" s="7">
+        <v>31.367999999999999</v>
+      </c>
+      <c r="I14" s="7">
+        <v>31.367999999999999</v>
+      </c>
+      <c r="J14" s="7">
+        <v>31.367999999999999</v>
+      </c>
+      <c r="R14" s="2">
+        <f>SUM(G14:J14)</f>
+        <v>125.49699999999999</v>
+      </c>
+      <c r="S14" s="2">
+        <f>+R14</f>
+        <v>125.49699999999999</v>
+      </c>
+      <c r="T14" s="2">
+        <f>+S14</f>
+        <v>125.49699999999999</v>
+      </c>
+      <c r="U14" s="2">
+        <f>+T14</f>
+        <v>125.49699999999999</v>
+      </c>
+      <c r="V14" s="2">
+        <f>+U14</f>
+        <v>125.49699999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="7">
+        <f>+G13+G14</f>
+        <v>111.176</v>
+      </c>
+      <c r="H15" s="7">
+        <f>+H13+H14</f>
+        <v>93.451999999999998</v>
+      </c>
+      <c r="I15" s="7">
+        <f>+I13+I14</f>
+        <v>31.367999999999999</v>
+      </c>
+      <c r="J15" s="7">
+        <f>+J13+J14</f>
+        <v>31.367999999999999</v>
+      </c>
+      <c r="R15" s="2">
+        <f>+R14+R13</f>
+        <v>125.49699999999999</v>
+      </c>
+      <c r="S15" s="2">
+        <f>+S14+S13</f>
+        <v>125.49699999999999</v>
+      </c>
+      <c r="T15" s="2">
+        <f>+T14+T13</f>
+        <v>125.49699999999999</v>
+      </c>
+      <c r="U15" s="2">
+        <f>+U14+U13</f>
+        <v>125.49699999999999</v>
+      </c>
+      <c r="V15" s="2">
+        <f>+V14+V13</f>
+        <v>125.49699999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0.71499999999999997</v>
-      </c>
-      <c r="H3" s="7">
-        <v>18.3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="7">
-        <v>12.8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="8">
-        <f>+G4+G3</f>
-        <v>0.71499999999999997</v>
-      </c>
-      <c r="H5" s="8">
-        <f>+H4+H3</f>
-        <v>31.1</v>
-      </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
+      <c r="G16" s="7">
+        <f>+G12-G15</f>
+        <v>-117.72200000000001</v>
+      </c>
+      <c r="H16" s="7">
+        <f>+H12-H15</f>
+        <v>-93.72</v>
+      </c>
+      <c r="I16" s="7">
+        <f>+I12-I15</f>
+        <v>9.2320000000000029</v>
+      </c>
+      <c r="J16" s="7">
+        <f>+J12-J15</f>
+        <v>27.257000000000001</v>
+      </c>
+      <c r="R16" s="2">
+        <f>+R12-R15</f>
+        <v>227.40049999999999</v>
+      </c>
+      <c r="S16" s="2">
+        <f>+S12-S15</f>
+        <v>443.96412500000008</v>
+      </c>
+      <c r="T16" s="2">
+        <f>+T12-T15</f>
+        <v>544.85905625000009</v>
+      </c>
+      <c r="U16" s="2">
+        <f>+U12-U15</f>
+        <v>597.6893590625001</v>
+      </c>
+      <c r="V16" s="2">
+        <f>+V12-V15</f>
+        <v>650.74711451562507</v>
+      </c>
+    </row>
+    <row r="17" spans="2:104" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" s="7">
+        <v>3.3380000000000001</v>
+      </c>
+      <c r="H17" s="7">
+        <v>3.355</v>
+      </c>
+    </row>
+    <row r="18" spans="2:104" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="7">
-        <v>7.2610000000000001</v>
-      </c>
-      <c r="H6" s="7">
-        <v>31.367999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="7">
-        <f>+G5-G6</f>
-        <v>-6.5460000000000003</v>
-      </c>
-      <c r="H7" s="7">
-        <f>+H5-H6</f>
-        <v>-0.26799999999999713</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
+      <c r="G18" s="7">
+        <f>+G16+G17</f>
+        <v>-114.38400000000001</v>
+      </c>
+      <c r="H18" s="7">
+        <f>+H16+H17</f>
+        <v>-90.364999999999995</v>
+      </c>
+      <c r="I18" s="7">
+        <f>+I16+I17</f>
+        <v>9.2320000000000029</v>
+      </c>
+      <c r="J18" s="7">
+        <f>+J16+J17</f>
+        <v>27.257000000000001</v>
+      </c>
+      <c r="R18" s="2">
+        <f>+R16+R17</f>
+        <v>227.40049999999999</v>
+      </c>
+      <c r="S18" s="2">
+        <f>+S16+S17</f>
+        <v>443.96412500000008</v>
+      </c>
+      <c r="T18" s="2">
+        <f>+T16+T17</f>
+        <v>544.85905625000009</v>
+      </c>
+      <c r="U18" s="2">
+        <f>+U16+U17</f>
+        <v>597.6893590625001</v>
+      </c>
+      <c r="V18" s="2">
+        <f>+V16+V17</f>
+        <v>650.74711451562507</v>
+      </c>
+    </row>
+    <row r="19" spans="2:104" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="7">
-        <v>79.783000000000001</v>
-      </c>
-      <c r="H8" s="7">
-        <v>62.084000000000003</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
+      <c r="G19" s="7">
+        <v>-1.4079999999999999</v>
+      </c>
+      <c r="H19" s="7">
+        <v>-1.458</v>
+      </c>
+      <c r="R19" s="2">
+        <f>+R18*0.25</f>
+        <v>56.850124999999998</v>
+      </c>
+      <c r="S19" s="2">
+        <f>+S18*0.25</f>
+        <v>110.99103125000002</v>
+      </c>
+      <c r="T19" s="2">
+        <f>+T18*0.25</f>
+        <v>136.21476406250002</v>
+      </c>
+      <c r="U19" s="2">
+        <f>+U18*0.25</f>
+        <v>149.42233976562503</v>
+      </c>
+      <c r="V19" s="2">
+        <f>+V18*0.25</f>
+        <v>162.68677862890627</v>
+      </c>
+    </row>
+    <row r="20" spans="2:104" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
         <v>45</v>
       </c>
-      <c r="G9" s="7">
-        <v>31.393000000000001</v>
-      </c>
-      <c r="H9" s="7">
-        <v>31.367999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
+      <c r="G20" s="7">
+        <f>+G18-G19</f>
+        <v>-112.97600000000001</v>
+      </c>
+      <c r="H20" s="7">
+        <f>+H18-H19</f>
+        <v>-88.906999999999996</v>
+      </c>
+      <c r="I20" s="7">
+        <f>+I18-I19</f>
+        <v>9.2320000000000029</v>
+      </c>
+      <c r="J20" s="7">
+        <f>+J18-J19</f>
+        <v>27.257000000000001</v>
+      </c>
+      <c r="R20" s="2">
+        <f>+R18-R19</f>
+        <v>170.550375</v>
+      </c>
+      <c r="S20" s="2">
+        <f>+S18-S19</f>
+        <v>332.97309375000009</v>
+      </c>
+      <c r="T20" s="2">
+        <f>+T18-T19</f>
+        <v>408.64429218750007</v>
+      </c>
+      <c r="U20" s="2">
+        <f>+U18-U19</f>
+        <v>448.26701929687511</v>
+      </c>
+      <c r="V20" s="2">
+        <f>+V18-V19</f>
+        <v>488.0603358867188</v>
+      </c>
+      <c r="W20" s="2">
+        <f>+V20*(1+$AA$22)</f>
+        <v>492.94093924558598</v>
+      </c>
+      <c r="X20" s="2">
+        <f t="shared" ref="X20:CI20" si="3">+W20*(1+$AA$22)</f>
+        <v>497.87034863804183</v>
+      </c>
+      <c r="Y20" s="2">
+        <f t="shared" si="3"/>
+        <v>502.84905212442226</v>
+      </c>
+      <c r="Z20" s="2">
+        <f t="shared" si="3"/>
+        <v>507.87754264566649</v>
+      </c>
+      <c r="AA20" s="2">
+        <f t="shared" si="3"/>
+        <v>512.95631807212317</v>
+      </c>
+      <c r="AB20" s="2">
+        <f t="shared" si="3"/>
+        <v>518.08588125284439</v>
+      </c>
+      <c r="AC20" s="2">
+        <f t="shared" si="3"/>
+        <v>523.2667400653728</v>
+      </c>
+      <c r="AD20" s="2">
+        <f t="shared" si="3"/>
+        <v>528.49940746602658</v>
+      </c>
+      <c r="AE20" s="2">
+        <f t="shared" si="3"/>
+        <v>533.78440154068687</v>
+      </c>
+      <c r="AF20" s="2">
+        <f t="shared" si="3"/>
+        <v>539.12224555609373</v>
+      </c>
+      <c r="AG20" s="2">
+        <f t="shared" si="3"/>
+        <v>544.51346801165471</v>
+      </c>
+      <c r="AH20" s="2">
+        <f t="shared" si="3"/>
+        <v>549.95860269177126</v>
+      </c>
+      <c r="AI20" s="2">
+        <f t="shared" si="3"/>
+        <v>555.45818871868903</v>
+      </c>
+      <c r="AJ20" s="2">
+        <f t="shared" si="3"/>
+        <v>561.01277060587597</v>
+      </c>
+      <c r="AK20" s="2">
+        <f t="shared" si="3"/>
+        <v>566.6228983119347</v>
+      </c>
+      <c r="AL20" s="2">
+        <f t="shared" si="3"/>
+        <v>572.28912729505407</v>
+      </c>
+      <c r="AM20" s="2">
+        <f t="shared" si="3"/>
+        <v>578.01201856800458</v>
+      </c>
+      <c r="AN20" s="2">
+        <f t="shared" si="3"/>
+        <v>583.79213875368464</v>
+      </c>
+      <c r="AO20" s="2">
+        <f t="shared" si="3"/>
+        <v>589.63006014122152</v>
+      </c>
+      <c r="AP20" s="2">
+        <f t="shared" si="3"/>
+        <v>595.52636074263376</v>
+      </c>
+      <c r="AQ20" s="2">
+        <f t="shared" si="3"/>
+        <v>601.48162435006009</v>
+      </c>
+      <c r="AR20" s="2">
+        <f t="shared" si="3"/>
+        <v>607.49644059356069</v>
+      </c>
+      <c r="AS20" s="2">
+        <f t="shared" si="3"/>
+        <v>613.57140499949628</v>
+      </c>
+      <c r="AT20" s="2">
+        <f t="shared" si="3"/>
+        <v>619.70711904949121</v>
+      </c>
+      <c r="AU20" s="2">
+        <f t="shared" si="3"/>
+        <v>625.90419023998618</v>
+      </c>
+      <c r="AV20" s="2">
+        <f t="shared" si="3"/>
+        <v>632.16323214238605</v>
+      </c>
+      <c r="AW20" s="2">
+        <f t="shared" si="3"/>
+        <v>638.48486446380991</v>
+      </c>
+      <c r="AX20" s="2">
+        <f t="shared" si="3"/>
+        <v>644.86971310844797</v>
+      </c>
+      <c r="AY20" s="2">
+        <f t="shared" si="3"/>
+        <v>651.31841023953245</v>
+      </c>
+      <c r="AZ20" s="2">
+        <f t="shared" si="3"/>
+        <v>657.83159434192783</v>
+      </c>
+      <c r="BA20" s="2">
+        <f t="shared" si="3"/>
+        <v>664.40991028534711</v>
+      </c>
+      <c r="BB20" s="2">
+        <f t="shared" si="3"/>
+        <v>671.0540093882006</v>
+      </c>
+      <c r="BC20" s="2">
+        <f t="shared" si="3"/>
+        <v>677.76454948208266</v>
+      </c>
+      <c r="BD20" s="2">
+        <f t="shared" si="3"/>
+        <v>684.54219497690349</v>
+      </c>
+      <c r="BE20" s="2">
+        <f t="shared" si="3"/>
+        <v>691.38761692667254</v>
+      </c>
+      <c r="BF20" s="2">
+        <f t="shared" si="3"/>
+        <v>698.30149309593924</v>
+      </c>
+      <c r="BG20" s="2">
+        <f t="shared" si="3"/>
+        <v>705.28450802689861</v>
+      </c>
+      <c r="BH20" s="2">
+        <f t="shared" si="3"/>
+        <v>712.33735310716759</v>
+      </c>
+      <c r="BI20" s="2">
+        <f t="shared" si="3"/>
+        <v>719.46072663823929</v>
+      </c>
+      <c r="BJ20" s="2">
+        <f t="shared" si="3"/>
+        <v>726.65533390462167</v>
+      </c>
+      <c r="BK20" s="2">
+        <f t="shared" si="3"/>
+        <v>733.92188724366792</v>
+      </c>
+      <c r="BL20" s="2">
+        <f t="shared" si="3"/>
+        <v>741.26110611610466</v>
+      </c>
+      <c r="BM20" s="2">
+        <f t="shared" si="3"/>
+        <v>748.67371717726576</v>
+      </c>
+      <c r="BN20" s="2">
+        <f t="shared" si="3"/>
+        <v>756.16045434903845</v>
+      </c>
+      <c r="BO20" s="2">
+        <f t="shared" si="3"/>
+        <v>763.72205889252882</v>
+      </c>
+      <c r="BP20" s="2">
+        <f t="shared" si="3"/>
+        <v>771.35927948145411</v>
+      </c>
+      <c r="BQ20" s="2">
+        <f t="shared" si="3"/>
+        <v>779.07287227626864</v>
+      </c>
+      <c r="BR20" s="2">
+        <f t="shared" si="3"/>
+        <v>786.86360099903129</v>
+      </c>
+      <c r="BS20" s="2">
+        <f t="shared" si="3"/>
+        <v>794.73223700902156</v>
+      </c>
+      <c r="BT20" s="2">
+        <f t="shared" si="3"/>
+        <v>802.67955937911177</v>
+      </c>
+      <c r="BU20" s="2">
+        <f t="shared" si="3"/>
+        <v>810.70635497290289</v>
+      </c>
+      <c r="BV20" s="2">
+        <f t="shared" si="3"/>
+        <v>818.81341852263188</v>
+      </c>
+      <c r="BW20" s="2">
+        <f t="shared" si="3"/>
+        <v>827.0015527078582</v>
+      </c>
+      <c r="BX20" s="2">
+        <f t="shared" si="3"/>
+        <v>835.27156823493681</v>
+      </c>
+      <c r="BY20" s="2">
+        <f t="shared" si="3"/>
+        <v>843.62428391728622</v>
+      </c>
+      <c r="BZ20" s="2">
+        <f t="shared" si="3"/>
+        <v>852.06052675645913</v>
+      </c>
+      <c r="CA20" s="2">
+        <f t="shared" si="3"/>
+        <v>860.58113202402376</v>
+      </c>
+      <c r="CB20" s="2">
+        <f t="shared" si="3"/>
+        <v>869.18694334426402</v>
+      </c>
+      <c r="CC20" s="2">
+        <f t="shared" si="3"/>
+        <v>877.87881277770668</v>
+      </c>
+      <c r="CD20" s="2">
+        <f t="shared" si="3"/>
+        <v>886.65760090548372</v>
+      </c>
+      <c r="CE20" s="2">
+        <f t="shared" si="3"/>
+        <v>895.52417691453854</v>
+      </c>
+      <c r="CF20" s="2">
+        <f t="shared" si="3"/>
+        <v>904.47941868368389</v>
+      </c>
+      <c r="CG20" s="2">
+        <f t="shared" si="3"/>
+        <v>913.52421287052073</v>
+      </c>
+      <c r="CH20" s="2">
+        <f t="shared" si="3"/>
+        <v>922.659454999226</v>
+      </c>
+      <c r="CI20" s="2">
+        <f t="shared" si="3"/>
+        <v>931.88604954921823</v>
+      </c>
+      <c r="CJ20" s="2">
+        <f t="shared" ref="CJ20:CZ20" si="4">+CI20*(1+$AA$22)</f>
+        <v>941.20491004471046</v>
+      </c>
+      <c r="CK20" s="2">
+        <f t="shared" si="4"/>
+        <v>950.61695914515758</v>
+      </c>
+      <c r="CL20" s="2">
+        <f t="shared" si="4"/>
+        <v>960.12312873660915</v>
+      </c>
+      <c r="CM20" s="2">
+        <f t="shared" si="4"/>
+        <v>969.72436002397524</v>
+      </c>
+      <c r="CN20" s="2">
+        <f t="shared" si="4"/>
+        <v>979.42160362421498</v>
+      </c>
+      <c r="CO20" s="2">
+        <f t="shared" si="4"/>
+        <v>989.2158196604571</v>
+      </c>
+      <c r="CP20" s="2">
+        <f t="shared" si="4"/>
+        <v>999.10797785706166</v>
+      </c>
+      <c r="CQ20" s="2">
+        <f t="shared" si="4"/>
+        <v>1009.0990576356323</v>
+      </c>
+      <c r="CR20" s="2">
+        <f t="shared" si="4"/>
+        <v>1019.1900482119887</v>
+      </c>
+      <c r="CS20" s="2">
+        <f t="shared" si="4"/>
+        <v>1029.3819486941086</v>
+      </c>
+      <c r="CT20" s="2">
+        <f t="shared" si="4"/>
+        <v>1039.6757681810498</v>
+      </c>
+      <c r="CU20" s="2">
+        <f t="shared" si="4"/>
+        <v>1050.0725258628602</v>
+      </c>
+      <c r="CV20" s="2">
+        <f t="shared" si="4"/>
+        <v>1060.5732511214887</v>
+      </c>
+      <c r="CW20" s="2">
+        <f t="shared" si="4"/>
+        <v>1071.1789836327036</v>
+      </c>
+      <c r="CX20" s="2">
+        <f t="shared" si="4"/>
+        <v>1081.8907734690306</v>
+      </c>
+      <c r="CY20" s="2">
+        <f t="shared" si="4"/>
+        <v>1092.7096812037209</v>
+      </c>
+      <c r="CZ20" s="2">
+        <f t="shared" si="4"/>
+        <v>1103.6367780157582</v>
+      </c>
+    </row>
+    <row r="21" spans="2:104" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="7">
-        <f>+G8+G9</f>
-        <v>111.176</v>
-      </c>
-      <c r="H10" s="7">
-        <f>+H8+H9</f>
-        <v>93.451999999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11" s="7">
-        <f>+G7-G10</f>
-        <v>-117.72200000000001</v>
-      </c>
-      <c r="H11" s="7">
-        <f>+H7-H10</f>
-        <v>-93.72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G12" s="7">
-        <v>3.3380000000000001</v>
-      </c>
-      <c r="H12" s="7">
-        <v>3.355</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>49</v>
-      </c>
-      <c r="G13" s="7">
-        <f>+G11+G12</f>
-        <v>-114.38400000000001</v>
-      </c>
-      <c r="H13" s="7">
-        <f>+H11+H12</f>
-        <v>-90.364999999999995</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>50</v>
-      </c>
-      <c r="G14" s="7">
-        <v>-1.4079999999999999</v>
-      </c>
-      <c r="H14" s="7">
-        <v>-1.458</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15" s="7">
-        <f>+G13-G14</f>
-        <v>-112.97600000000001</v>
-      </c>
-      <c r="H15" s="7">
-        <f>+H13-H14</f>
-        <v>-88.906999999999996</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>52</v>
-      </c>
-      <c r="G16" s="6">
-        <f>+G15/G17</f>
+      <c r="G21" s="6">
+        <f>+G20/G22</f>
         <v>-0.42437082112538504</v>
       </c>
-      <c r="H16" s="6">
-        <f>+H15/H17</f>
+      <c r="H21" s="6">
+        <f>+H20/H22</f>
         <v>-0.31215482221917934</v>
       </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
+      <c r="I21" s="6">
+        <f>+I20/I22</f>
+        <v>3.2413795524845787E-2</v>
+      </c>
+      <c r="J21" s="6">
+        <f>+J20/J22</f>
+        <v>9.5700045994445565E-2</v>
+      </c>
+      <c r="R21" s="23">
+        <f>+R20/R22</f>
+        <v>0.59880686546098016</v>
+      </c>
+      <c r="S21" s="23">
+        <f>+S20/S22</f>
+        <v>1.1690773154341212</v>
+      </c>
+      <c r="T21" s="23">
+        <f>+T20/T22</f>
+        <v>1.4347608892288735</v>
+      </c>
+      <c r="U21" s="23">
+        <f>+U20/U22</f>
+        <v>1.5738773292917034</v>
+      </c>
+      <c r="V21" s="23">
+        <f>+V20/V22</f>
+        <v>1.7135927135203264</v>
+      </c>
+    </row>
+    <row r="22" spans="2:104" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
         <v>1</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G22" s="7">
         <v>266.22000000000003</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H22" s="7">
         <v>284.81700000000001</v>
+      </c>
+      <c r="I22" s="7">
+        <f>+H22</f>
+        <v>284.81700000000001</v>
+      </c>
+      <c r="J22" s="7">
+        <f>+I22</f>
+        <v>284.81700000000001</v>
+      </c>
+      <c r="R22" s="2">
+        <f>J22</f>
+        <v>284.81700000000001</v>
+      </c>
+      <c r="S22" s="2">
+        <f>+R22</f>
+        <v>284.81700000000001</v>
+      </c>
+      <c r="T22" s="2">
+        <f>+S22</f>
+        <v>284.81700000000001</v>
+      </c>
+      <c r="U22" s="2">
+        <f>+T22</f>
+        <v>284.81700000000001</v>
+      </c>
+      <c r="V22" s="2">
+        <f>+U22</f>
+        <v>284.81700000000001</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA22" s="25">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="23" spans="2:104" x14ac:dyDescent="0.2">
+      <c r="Z23" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA23" s="25">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="24" spans="2:104" x14ac:dyDescent="0.2">
+      <c r="Z24" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA24" s="25">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="25" spans="2:104" x14ac:dyDescent="0.2">
+      <c r="Z25" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA25" s="2">
+        <f>NPV(AA24,R20:CZ20)+Main!I5-Main!I6</f>
+        <v>5802.0111794442128</v>
       </c>
     </row>
   </sheetData>
@@ -1112,21 +2486,25 @@
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{98EB58D4-A9F0-4B22-B34A-DC03455969FD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD51A01D-9C2A-46BD-9B78-0DEFBECBAD8A}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -1139,86 +2517,229 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>11</v>
+        <v>56</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>20</v>
+      <c r="C7" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C8" s="4" t="s">
+      <c r="B8" t="s">
         <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>88</v>
+      </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C14" s="4" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C17" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C19" s="4" t="s">
-        <v>33</v>
+      <c r="C15" s="24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C16" s="24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C17" s="24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C18" s="24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C19" s="24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C20" s="24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C21" s="24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C22" s="24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C23" s="24"/>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C29" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C32" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C34" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C35" s="24" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C37" s="24" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C38" s="24" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C39" s="24" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C40" s="24" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C42" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="58" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C58" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="59" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C59" s="24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="60" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C60" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1226,5 +2747,6 @@
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{1BECEA9B-F447-4AAF-B161-10E0EC7F62F2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/IOVA.xlsx
+++ b/IOVA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA40ADA1-CC33-4B9E-988B-D9445E53963C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F3AFF6E-30D0-43F9-ADE6-E116B88F0AAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24390" yWindow="3735" windowWidth="24480" windowHeight="17115" activeTab="2" xr2:uid="{1054D507-1308-4FD4-B51E-7B0D91C597A0}"/>
+    <workbookView xWindow="-42060" yWindow="375" windowWidth="25590" windowHeight="15345" xr2:uid="{1054D507-1308-4FD4-B51E-7B0D91C597A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -41,6 +41,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={998ABA84-464F-443C-9A08-EB68E16B19E1}</author>
+    <author>tc={0BB1B626-A589-4322-9A3C-20DA88170F85}</author>
   </authors>
   <commentList>
     <comment ref="H7" authorId="0" shapeId="0" xr:uid="{998ABA84-464F-443C-9A08-EB68E16B19E1}">
@@ -51,12 +52,20 @@
     25 in Q2</t>
       </text>
     </comment>
+    <comment ref="V10" authorId="1" shapeId="0" xr:uid="{0BB1B626-A589-4322-9A3C-20DA88170F85}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Q4 guidance: 450-475m</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="102">
   <si>
     <t>Price</t>
   </si>
@@ -350,6 +359,18 @@
   </si>
   <si>
     <t>n=23 26% ORR</t>
+  </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
   </si>
 </sst>
 </file>
@@ -392,12 +413,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -499,7 +526,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -548,16 +575,14 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -632,13 +657,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>148828</xdr:rowOff>
@@ -1102,6 +1127,9 @@
   <threadedComment ref="H7" dT="2024-08-21T17:47:34.72" personId="{7751D084-A6E8-45AD-80D5-700049C57ECD}" id="{998ABA84-464F-443C-9A08-EB68E16B19E1}">
     <text>25 in Q2</text>
   </threadedComment>
+  <threadedComment ref="V10" dT="2025-03-03T17:24:35.02" personId="{7751D084-A6E8-45AD-80D5-700049C57ECD}" id="{0BB1B626-A589-4322-9A3C-20DA88170F85}">
+    <text>Q4 guidance: 450-475m</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -1109,7 +1137,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A1DDB4A-E1A7-46DA-B6C4-44E49BB99810}">
   <dimension ref="B2:J11"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1137,8 +1167,8 @@
       <c r="H2" t="s">
         <v>0</v>
       </c>
-      <c r="I2">
-        <v>10.61</v>
+      <c r="I2" s="23">
+        <v>4.05</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.2">
@@ -1177,7 +1207,7 @@
       </c>
       <c r="I4" s="2">
         <f>+I2*I3</f>
-        <v>3220.2821819199999</v>
+        <v>1229.2311815999999</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.2">
@@ -1237,7 +1267,7 @@
       </c>
       <c r="I7" s="2">
         <f>+I4-I5+I6</f>
-        <v>2802.3101819199996</v>
+        <v>811.25918159999992</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.2">
@@ -1277,29 +1307,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{940CD409-040D-4731-9469-9E62BEA01EC6}">
-  <dimension ref="A1:CZ25"/>
+  <dimension ref="A1:DD25"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="T3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="S15" sqref="S15"/>
+      <selection pane="bottomRight" activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="10" width="9.140625" style="1"/>
-    <col min="27" max="27" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="14" width="9.140625" style="1"/>
+    <col min="31" max="31" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C2" s="1" t="s">
         <v>29</v>
       </c>
@@ -1324,78 +1354,90 @@
       <c r="J2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L2">
-        <f t="shared" ref="L2:P2" si="0">+M2-1</f>
+      <c r="K2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="P2">
+        <f t="shared" ref="P2:S2" si="0">+Q2-1</f>
         <v>2019</v>
       </c>
-      <c r="M2">
+      <c r="Q2">
         <f t="shared" si="0"/>
         <v>2020</v>
       </c>
-      <c r="N2">
+      <c r="R2">
         <f t="shared" si="0"/>
         <v>2021</v>
       </c>
-      <c r="O2">
+      <c r="S2">
         <f t="shared" si="0"/>
         <v>2022</v>
       </c>
-      <c r="P2">
-        <f>+Q2-1</f>
+      <c r="T2">
+        <f>+U2-1</f>
         <v>2023</v>
       </c>
-      <c r="Q2">
+      <c r="U2">
         <v>2024</v>
       </c>
-      <c r="R2">
+      <c r="V2">
         <v>2025</v>
       </c>
-      <c r="S2">
-        <f>+R2+1</f>
+      <c r="W2">
+        <f>+V2+1</f>
         <v>2026</v>
       </c>
-      <c r="T2">
-        <f t="shared" ref="T2:AC2" si="1">+S2+1</f>
+      <c r="X2">
+        <f t="shared" ref="X2:AG2" si="1">+W2+1</f>
         <v>2027</v>
       </c>
-      <c r="U2">
+      <c r="Y2">
         <f t="shared" si="1"/>
         <v>2028</v>
       </c>
-      <c r="V2">
+      <c r="Z2">
         <f t="shared" si="1"/>
         <v>2029</v>
       </c>
-      <c r="W2">
+      <c r="AA2">
         <f t="shared" si="1"/>
         <v>2030</v>
       </c>
-      <c r="X2">
+      <c r="AB2">
         <f t="shared" si="1"/>
         <v>2031</v>
       </c>
-      <c r="Y2">
+      <c r="AC2">
         <f t="shared" si="1"/>
         <v>2032</v>
       </c>
-      <c r="Z2">
+      <c r="AD2">
         <f t="shared" si="1"/>
         <v>2033</v>
       </c>
-      <c r="AA2">
+      <c r="AE2">
         <f t="shared" si="1"/>
         <v>2034</v>
       </c>
-      <c r="AB2">
+      <c r="AF2">
         <f t="shared" si="1"/>
         <v>2035</v>
       </c>
-      <c r="AC2">
+      <c r="AG2">
         <f t="shared" si="1"/>
         <v>2036</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>65</v>
       </c>
@@ -1411,38 +1453,26 @@
       <c r="J3" s="1">
         <v>0.51500000000000001</v>
       </c>
-      <c r="R3">
-        <v>0.51500000000000001</v>
-      </c>
-      <c r="S3">
-        <v>0.51500000000000001</v>
-      </c>
-      <c r="T3">
-        <v>0.51500000000000001</v>
-      </c>
-      <c r="U3">
-        <v>0.51500000000000001</v>
-      </c>
       <c r="V3">
         <v>0.51500000000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="W3">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="X3">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="Y3">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="Z3">
+        <v>0.51500000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>53</v>
       </c>
-      <c r="L4" s="2">
-        <v>3500</v>
-      </c>
-      <c r="M4" s="2">
-        <v>3500</v>
-      </c>
-      <c r="N4" s="2">
-        <v>3500</v>
-      </c>
-      <c r="O4" s="2">
-        <v>3500</v>
-      </c>
       <c r="P4" s="2">
         <v>3500</v>
       </c>
@@ -1453,40 +1483,36 @@
         <v>3500</v>
       </c>
       <c r="S4" s="2">
+        <v>3500</v>
+      </c>
+      <c r="T4" s="2">
+        <v>3500</v>
+      </c>
+      <c r="U4" s="2">
+        <v>3500</v>
+      </c>
+      <c r="V4" s="2">
+        <v>3500</v>
+      </c>
+      <c r="W4" s="2">
         <v>5000</v>
       </c>
-      <c r="T4" s="2">
+      <c r="X4" s="2">
         <v>5000</v>
       </c>
-      <c r="U4" s="2">
+      <c r="Y4" s="2">
         <v>5000</v>
       </c>
-      <c r="V4" s="2">
+      <c r="Z4" s="2">
         <v>5000</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>69</v>
       </c>
-      <c r="L5" s="2">
-        <f t="shared" ref="L5:Q5" si="2">+L4*0.5</f>
-        <v>1750</v>
-      </c>
-      <c r="M5" s="2">
-        <f t="shared" si="2"/>
-        <v>1750</v>
-      </c>
-      <c r="N5" s="2">
-        <f t="shared" si="2"/>
-        <v>1750</v>
-      </c>
-      <c r="O5" s="2">
-        <f t="shared" si="2"/>
-        <v>1750</v>
-      </c>
       <c r="P5" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="P5:U5" si="2">+P4*0.5</f>
         <v>1750</v>
       </c>
       <c r="Q5" s="2">
@@ -1494,47 +1520,63 @@
         <v>1750</v>
       </c>
       <c r="R5" s="2">
-        <f>+R4*0.5</f>
+        <f t="shared" si="2"/>
         <v>1750</v>
       </c>
       <c r="S5" s="2">
-        <f>+S4*0.5</f>
-        <v>2500</v>
+        <f t="shared" si="2"/>
+        <v>1750</v>
       </c>
       <c r="T5" s="2">
-        <f>+T4*0.5</f>
-        <v>2500</v>
+        <f t="shared" si="2"/>
+        <v>1750</v>
       </c>
       <c r="U5" s="2">
-        <f>+U4*0.5</f>
-        <v>2500</v>
+        <f t="shared" si="2"/>
+        <v>1750</v>
       </c>
       <c r="V5" s="2">
         <f>+V4*0.5</f>
+        <v>1750</v>
+      </c>
+      <c r="W5" s="2">
+        <f>+W4*0.5</f>
         <v>2500</v>
       </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="X5" s="2">
+        <f>+X4*0.5</f>
+        <v>2500</v>
+      </c>
+      <c r="Y5" s="2">
+        <f>+Y4*0.5</f>
+        <v>2500</v>
+      </c>
+      <c r="Z5" s="2">
+        <f>+Z4*0.5</f>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>70</v>
       </c>
-      <c r="R6" s="25">
+      <c r="V6" s="24">
         <v>0.4</v>
       </c>
-      <c r="S6" s="25">
+      <c r="W6" s="24">
         <v>0.5</v>
       </c>
-      <c r="T6" s="25">
+      <c r="X6" s="24">
         <v>0.6</v>
       </c>
-      <c r="U6" s="25">
+      <c r="Y6" s="24">
         <v>0.65</v>
       </c>
-      <c r="V6" s="25">
+      <c r="Z6" s="24">
         <v>0.7</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>71</v>
       </c>
@@ -1544,34 +1586,38 @@
       </c>
       <c r="I7" s="7">
         <f>+I9/I3</f>
-        <v>77.669902912621353</v>
+        <v>78.834951456310677</v>
       </c>
       <c r="J7" s="7">
         <f>+I7+50</f>
-        <v>127.66990291262135</v>
-      </c>
-      <c r="R7" s="2">
-        <f>+R9/R3</f>
-        <v>700</v>
-      </c>
-      <c r="S7" s="2">
-        <f>+S9/S3</f>
-        <v>1250</v>
-      </c>
-      <c r="T7" s="2">
-        <f>+T9/T3</f>
-        <v>1500</v>
-      </c>
-      <c r="U7" s="2">
-        <f>+U9/U3</f>
-        <v>1625</v>
-      </c>
+        <v>128.83495145631068</v>
+      </c>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
       <c r="V7" s="2">
         <f>+V9/V3</f>
+        <v>700</v>
+      </c>
+      <c r="W7" s="2">
+        <f>+W9/W3</f>
+        <v>1250</v>
+      </c>
+      <c r="X7" s="2">
+        <f>+X9/X3</f>
+        <v>1500</v>
+      </c>
+      <c r="Y7" s="2">
+        <f>+Y9/Y3</f>
+        <v>1625</v>
+      </c>
+      <c r="Z7" s="2">
+        <f>+Z9/Z3</f>
         <v>1749.9999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>26</v>
       </c>
@@ -1585,81 +1631,79 @@
         <v>18</v>
       </c>
       <c r="J8" s="1">
-        <f>+I8</f>
-        <v>18</v>
-      </c>
-      <c r="Q8" s="2">
+        <v>25</v>
+      </c>
+      <c r="U8" s="2">
         <f>SUM(G8:J8)</f>
-        <v>55.015000000000001</v>
-      </c>
-      <c r="R8" s="2">
-        <f>+Q8*2</f>
-        <v>110.03</v>
-      </c>
-      <c r="S8" s="2">
-        <f>+R8*1.05</f>
-        <v>115.53150000000001</v>
-      </c>
-      <c r="T8" s="2">
-        <f>+S8*1.05</f>
-        <v>121.30807500000002</v>
-      </c>
-      <c r="U8" s="2">
-        <f>+T8*1.05</f>
-        <v>127.37347875000002</v>
+        <v>62.015000000000001</v>
       </c>
       <c r="V8" s="2">
-        <f>+U8*1.05</f>
-        <v>133.74215268750004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="24" t="s">
+        <f>+U8*2</f>
+        <v>124.03</v>
+      </c>
+      <c r="W8" s="2">
+        <f>+V8*1.05</f>
+        <v>130.23150000000001</v>
+      </c>
+      <c r="X8" s="2">
+        <f>+W8*1.05</f>
+        <v>136.743075</v>
+      </c>
+      <c r="Y8" s="2">
+        <f>+X8*1.05</f>
+        <v>143.58022875</v>
+      </c>
+      <c r="Z8" s="2">
+        <f>+Y8*1.05</f>
+        <v>150.75924018750001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27">
+      <c r="G9" s="26">
         <v>0</v>
       </c>
-      <c r="H9" s="28">
+      <c r="H9" s="27">
         <v>12.8</v>
       </c>
       <c r="I9" s="27">
-        <v>40</v>
-      </c>
-      <c r="J9" s="28">
-        <f>+J7*J3</f>
-        <v>65.75</v>
-      </c>
-      <c r="Q9" s="29">
+        <v>40.6</v>
+      </c>
+      <c r="J9" s="27">
+        <v>49</v>
+      </c>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="U9" s="2">
         <f>SUM(G9:J9)</f>
-        <v>118.55</v>
-      </c>
-      <c r="R9" s="29">
-        <f>+R5*R3*R6</f>
+        <v>102.4</v>
+      </c>
+      <c r="V9" s="2">
+        <f>+V5*V3*V6</f>
         <v>360.5</v>
       </c>
-      <c r="S9" s="29">
-        <f>+S5*S3*S6</f>
+      <c r="W9" s="2">
+        <f>+W5*W3*W6</f>
         <v>643.75</v>
       </c>
-      <c r="T9" s="29">
-        <f>+T5*T3*T6</f>
+      <c r="X9" s="2">
+        <f>+X5*X3*X6</f>
         <v>772.5</v>
       </c>
-      <c r="U9" s="29">
-        <f>+U5*U3*U6</f>
+      <c r="Y9" s="2">
+        <f>+Y5*Y3*Y6</f>
         <v>836.875</v>
       </c>
-      <c r="V9" s="29">
-        <f>+V5*V3*V6</f>
+      <c r="Z9" s="2">
+        <f>+Z5*Z3*Z6</f>
         <v>901.24999999999989</v>
       </c>
     </row>
-    <row r="10" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
         <v>28</v>
       </c>
@@ -1677,38 +1721,42 @@
       </c>
       <c r="I10" s="8">
         <f>+I9+I8</f>
-        <v>58</v>
+        <v>58.6</v>
       </c>
       <c r="J10" s="8">
         <f>+J9+J8</f>
-        <v>83.75</v>
-      </c>
-      <c r="Q10" s="26">
-        <f>+Q8+Q9</f>
-        <v>173.565</v>
-      </c>
-      <c r="R10" s="26">
-        <f>+R8+R9</f>
-        <v>470.53</v>
-      </c>
-      <c r="S10" s="26">
-        <f>+S8+S9</f>
-        <v>759.28150000000005</v>
-      </c>
-      <c r="T10" s="26">
-        <f>+T8+T9</f>
-        <v>893.80807500000003</v>
-      </c>
-      <c r="U10" s="26">
-        <f>+U8+U9</f>
-        <v>964.24847875</v>
-      </c>
-      <c r="V10" s="26">
-        <f>+V8+V9</f>
-        <v>1034.9921526875</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="U10" s="25">
+        <f t="shared" ref="U10:Z10" si="3">+U8+U9</f>
+        <v>164.41500000000002</v>
+      </c>
+      <c r="V10" s="25">
+        <f t="shared" si="3"/>
+        <v>484.53</v>
+      </c>
+      <c r="W10" s="25">
+        <f t="shared" si="3"/>
+        <v>773.98149999999998</v>
+      </c>
+      <c r="X10" s="25">
+        <f t="shared" si="3"/>
+        <v>909.24307499999998</v>
+      </c>
+      <c r="Y10" s="25">
+        <f t="shared" si="3"/>
+        <v>980.45522875000006</v>
+      </c>
+      <c r="Z10" s="25">
+        <f t="shared" si="3"/>
+        <v>1052.0092401874999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>37</v>
       </c>
@@ -1719,35 +1767,37 @@
         <v>31.367999999999999</v>
       </c>
       <c r="I11" s="7">
-        <f>+I10*0.3</f>
-        <v>17.399999999999999</v>
+        <v>39.823</v>
       </c>
       <c r="J11" s="7">
-        <f>+J10*0.3</f>
-        <v>25.125</v>
-      </c>
-      <c r="R11" s="2">
-        <f>+R10*0.25</f>
-        <v>117.63249999999999</v>
-      </c>
-      <c r="S11" s="2">
-        <f>+S10*0.25</f>
-        <v>189.82037500000001</v>
-      </c>
-      <c r="T11" s="2">
-        <f>+T10*0.25</f>
-        <v>223.45201875000001</v>
-      </c>
-      <c r="U11" s="2">
-        <f>+U10*0.25</f>
-        <v>241.0621196875</v>
-      </c>
+        <v>45.542999999999999</v>
+      </c>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
       <c r="V11" s="2">
         <f>+V10*0.25</f>
-        <v>258.74803817187501</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+        <v>121.13249999999999</v>
+      </c>
+      <c r="W11" s="2">
+        <f>+W10*0.25</f>
+        <v>193.495375</v>
+      </c>
+      <c r="X11" s="2">
+        <f>+X10*0.25</f>
+        <v>227.31076874999999</v>
+      </c>
+      <c r="Y11" s="2">
+        <f>+Y10*0.25</f>
+        <v>245.11380718750002</v>
+      </c>
+      <c r="Z11" s="2">
+        <f>+Z10*0.25</f>
+        <v>263.00231004687498</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>36</v>
       </c>
@@ -1761,34 +1811,38 @@
       </c>
       <c r="I12" s="7">
         <f>+I10-I11</f>
-        <v>40.6</v>
+        <v>18.777000000000001</v>
       </c>
       <c r="J12" s="7">
         <f>+J10-J11</f>
-        <v>58.625</v>
-      </c>
-      <c r="R12" s="2">
-        <f>+R10-R11</f>
-        <v>352.89749999999998</v>
-      </c>
-      <c r="S12" s="2">
-        <f>+S10-S11</f>
-        <v>569.46112500000004</v>
-      </c>
-      <c r="T12" s="2">
-        <f>+T10-T11</f>
-        <v>670.35605625000005</v>
-      </c>
-      <c r="U12" s="2">
-        <f>+U10-U11</f>
-        <v>723.18635906250006</v>
-      </c>
+        <v>28.457000000000001</v>
+      </c>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
       <c r="V12" s="2">
         <f>+V10-V11</f>
-        <v>776.24411451562503</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+        <v>363.39749999999998</v>
+      </c>
+      <c r="W12" s="2">
+        <f>+W10-W11</f>
+        <v>580.48612500000002</v>
+      </c>
+      <c r="X12" s="2">
+        <f>+X10-X11</f>
+        <v>681.93230625000001</v>
+      </c>
+      <c r="Y12" s="2">
+        <f>+Y10-Y11</f>
+        <v>735.34142156250005</v>
+      </c>
+      <c r="Z12" s="2">
+        <f>+Z10-Z11</f>
+        <v>789.00693014062495</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>38</v>
       </c>
@@ -1798,8 +1852,18 @@
       <c r="H13" s="7">
         <v>62.084000000000003</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="I13" s="7">
+        <v>68.245000000000005</v>
+      </c>
+      <c r="J13" s="7">
+        <v>72.224000000000004</v>
+      </c>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>39</v>
       </c>
@@ -1810,33 +1874,37 @@
         <v>31.367999999999999</v>
       </c>
       <c r="I14" s="7">
-        <v>31.367999999999999</v>
+        <v>39.552999999999997</v>
       </c>
       <c r="J14" s="7">
-        <v>31.367999999999999</v>
-      </c>
-      <c r="R14" s="2">
+        <v>42.503</v>
+      </c>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="V14" s="2">
         <f>SUM(G14:J14)</f>
-        <v>125.49699999999999</v>
-      </c>
-      <c r="S14" s="2">
-        <f>+R14</f>
-        <v>125.49699999999999</v>
-      </c>
-      <c r="T14" s="2">
-        <f>+S14</f>
-        <v>125.49699999999999</v>
-      </c>
-      <c r="U14" s="2">
-        <f>+T14</f>
-        <v>125.49699999999999</v>
-      </c>
-      <c r="V14" s="2">
-        <f>+U14</f>
-        <v>125.49699999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+        <v>144.81700000000001</v>
+      </c>
+      <c r="W14" s="2">
+        <f>+V14</f>
+        <v>144.81700000000001</v>
+      </c>
+      <c r="X14" s="2">
+        <f>+W14</f>
+        <v>144.81700000000001</v>
+      </c>
+      <c r="Y14" s="2">
+        <f>+X14</f>
+        <v>144.81700000000001</v>
+      </c>
+      <c r="Z14" s="2">
+        <f>+Y14</f>
+        <v>144.81700000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>40</v>
       </c>
@@ -1850,34 +1918,38 @@
       </c>
       <c r="I15" s="7">
         <f>+I13+I14</f>
-        <v>31.367999999999999</v>
+        <v>107.798</v>
       </c>
       <c r="J15" s="7">
         <f>+J13+J14</f>
-        <v>31.367999999999999</v>
-      </c>
-      <c r="R15" s="2">
-        <f>+R14+R13</f>
-        <v>125.49699999999999</v>
-      </c>
-      <c r="S15" s="2">
-        <f>+S14+S13</f>
-        <v>125.49699999999999</v>
-      </c>
-      <c r="T15" s="2">
-        <f>+T14+T13</f>
-        <v>125.49699999999999</v>
-      </c>
-      <c r="U15" s="2">
-        <f>+U14+U13</f>
-        <v>125.49699999999999</v>
-      </c>
+        <v>114.727</v>
+      </c>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
       <c r="V15" s="2">
         <f>+V14+V13</f>
-        <v>125.49699999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+        <v>144.81700000000001</v>
+      </c>
+      <c r="W15" s="2">
+        <f>+W14+W13</f>
+        <v>144.81700000000001</v>
+      </c>
+      <c r="X15" s="2">
+        <f>+X14+X13</f>
+        <v>144.81700000000001</v>
+      </c>
+      <c r="Y15" s="2">
+        <f>+Y14+Y13</f>
+        <v>144.81700000000001</v>
+      </c>
+      <c r="Z15" s="2">
+        <f>+Z14+Z13</f>
+        <v>144.81700000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>41</v>
       </c>
@@ -1891,34 +1963,38 @@
       </c>
       <c r="I16" s="7">
         <f>+I12-I15</f>
-        <v>9.2320000000000029</v>
+        <v>-89.021000000000001</v>
       </c>
       <c r="J16" s="7">
         <f>+J12-J15</f>
-        <v>27.257000000000001</v>
-      </c>
-      <c r="R16" s="2">
-        <f>+R12-R15</f>
-        <v>227.40049999999999</v>
-      </c>
-      <c r="S16" s="2">
-        <f>+S12-S15</f>
-        <v>443.96412500000008</v>
-      </c>
-      <c r="T16" s="2">
-        <f>+T12-T15</f>
-        <v>544.85905625000009</v>
-      </c>
-      <c r="U16" s="2">
-        <f>+U12-U15</f>
-        <v>597.6893590625001</v>
-      </c>
+        <v>-86.27000000000001</v>
+      </c>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
       <c r="V16" s="2">
         <f>+V12-V15</f>
-        <v>650.74711451562507</v>
-      </c>
-    </row>
-    <row r="17" spans="2:104" x14ac:dyDescent="0.2">
+        <v>218.58049999999997</v>
+      </c>
+      <c r="W16" s="2">
+        <f>+W12-W15</f>
+        <v>435.66912500000001</v>
+      </c>
+      <c r="X16" s="2">
+        <f>+X12-X15</f>
+        <v>537.11530625</v>
+      </c>
+      <c r="Y16" s="2">
+        <f>+Y12-Y15</f>
+        <v>590.52442156250004</v>
+      </c>
+      <c r="Z16" s="2">
+        <f>+Z12-Z15</f>
+        <v>644.18993014062494</v>
+      </c>
+    </row>
+    <row r="17" spans="2:108" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>42</v>
       </c>
@@ -1928,8 +2004,15 @@
       <c r="H17" s="7">
         <v>3.355</v>
       </c>
-    </row>
-    <row r="18" spans="2:104" x14ac:dyDescent="0.2">
+      <c r="J17" s="7">
+        <v>9.5749999999999993</v>
+      </c>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+    </row>
+    <row r="18" spans="2:108" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>43</v>
       </c>
@@ -1943,34 +2026,38 @@
       </c>
       <c r="I18" s="7">
         <f>+I16+I17</f>
-        <v>9.2320000000000029</v>
+        <v>-89.021000000000001</v>
       </c>
       <c r="J18" s="7">
         <f>+J16+J17</f>
-        <v>27.257000000000001</v>
-      </c>
-      <c r="R18" s="2">
-        <f>+R16+R17</f>
-        <v>227.40049999999999</v>
-      </c>
-      <c r="S18" s="2">
-        <f>+S16+S17</f>
-        <v>443.96412500000008</v>
-      </c>
-      <c r="T18" s="2">
-        <f>+T16+T17</f>
-        <v>544.85905625000009</v>
-      </c>
-      <c r="U18" s="2">
-        <f>+U16+U17</f>
-        <v>597.6893590625001</v>
-      </c>
+        <v>-76.695000000000007</v>
+      </c>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
       <c r="V18" s="2">
         <f>+V16+V17</f>
-        <v>650.74711451562507</v>
-      </c>
-    </row>
-    <row r="19" spans="2:104" x14ac:dyDescent="0.2">
+        <v>218.58049999999997</v>
+      </c>
+      <c r="W18" s="2">
+        <f>+W16+W17</f>
+        <v>435.66912500000001</v>
+      </c>
+      <c r="X18" s="2">
+        <f>+X16+X17</f>
+        <v>537.11530625</v>
+      </c>
+      <c r="Y18" s="2">
+        <f>+Y16+Y17</f>
+        <v>590.52442156250004</v>
+      </c>
+      <c r="Z18" s="2">
+        <f>+Z16+Z17</f>
+        <v>644.18993014062494</v>
+      </c>
+    </row>
+    <row r="19" spans="2:108" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>44</v>
       </c>
@@ -1980,28 +2067,35 @@
       <c r="H19" s="7">
         <v>-1.458</v>
       </c>
-      <c r="R19" s="2">
-        <f>+R18*0.25</f>
-        <v>56.850124999999998</v>
-      </c>
-      <c r="S19" s="2">
-        <f>+S18*0.25</f>
-        <v>110.99103125000002</v>
-      </c>
-      <c r="T19" s="2">
-        <f>+T18*0.25</f>
-        <v>136.21476406250002</v>
-      </c>
-      <c r="U19" s="2">
-        <f>+U18*0.25</f>
-        <v>149.42233976562503</v>
-      </c>
+      <c r="J19" s="7">
+        <v>1.5580000000000001</v>
+      </c>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
       <c r="V19" s="2">
         <f>+V18*0.25</f>
-        <v>162.68677862890627</v>
-      </c>
-    </row>
-    <row r="20" spans="2:104" x14ac:dyDescent="0.2">
+        <v>54.645124999999993</v>
+      </c>
+      <c r="W19" s="2">
+        <f>+W18*0.25</f>
+        <v>108.91728125</v>
+      </c>
+      <c r="X19" s="2">
+        <f>+X18*0.25</f>
+        <v>134.2788265625</v>
+      </c>
+      <c r="Y19" s="2">
+        <f>+Y18*0.25</f>
+        <v>147.63110539062501</v>
+      </c>
+      <c r="Z19" s="2">
+        <f>+Z18*0.25</f>
+        <v>161.04748253515623</v>
+      </c>
+    </row>
+    <row r="20" spans="2:108" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>45</v>
       </c>
@@ -2015,362 +2109,366 @@
       </c>
       <c r="I20" s="7">
         <f>+I18-I19</f>
-        <v>9.2320000000000029</v>
+        <v>-89.021000000000001</v>
       </c>
       <c r="J20" s="7">
         <f>+J18-J19</f>
-        <v>27.257000000000001</v>
-      </c>
-      <c r="R20" s="2">
-        <f>+R18-R19</f>
-        <v>170.550375</v>
-      </c>
-      <c r="S20" s="2">
-        <f>+S18-S19</f>
-        <v>332.97309375000009</v>
-      </c>
-      <c r="T20" s="2">
-        <f>+T18-T19</f>
-        <v>408.64429218750007</v>
-      </c>
-      <c r="U20" s="2">
-        <f>+U18-U19</f>
-        <v>448.26701929687511</v>
-      </c>
+        <v>-78.253000000000014</v>
+      </c>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
       <c r="V20" s="2">
         <f>+V18-V19</f>
-        <v>488.0603358867188</v>
+        <v>163.93537499999996</v>
       </c>
       <c r="W20" s="2">
-        <f>+V20*(1+$AA$22)</f>
-        <v>492.94093924558598</v>
+        <f>+W18-W19</f>
+        <v>326.75184375000003</v>
       </c>
       <c r="X20" s="2">
-        <f t="shared" ref="X20:CI20" si="3">+W20*(1+$AA$22)</f>
-        <v>497.87034863804183</v>
+        <f>+X18-X19</f>
+        <v>402.8364796875</v>
       </c>
       <c r="Y20" s="2">
-        <f t="shared" si="3"/>
-        <v>502.84905212442226</v>
+        <f>+Y18-Y19</f>
+        <v>442.89331617187503</v>
       </c>
       <c r="Z20" s="2">
-        <f t="shared" si="3"/>
-        <v>507.87754264566649</v>
+        <f>+Z18-Z19</f>
+        <v>483.1424476054687</v>
       </c>
       <c r="AA20" s="2">
-        <f t="shared" si="3"/>
-        <v>512.95631807212317</v>
+        <f>+Z20*(1+$AE$22)</f>
+        <v>487.97387208152338</v>
       </c>
       <c r="AB20" s="2">
-        <f t="shared" si="3"/>
-        <v>518.08588125284439</v>
+        <f t="shared" ref="AB20:CM20" si="4">+AA20*(1+$AE$22)</f>
+        <v>492.85361080233861</v>
       </c>
       <c r="AC20" s="2">
-        <f t="shared" si="3"/>
-        <v>523.2667400653728</v>
+        <f t="shared" si="4"/>
+        <v>497.78214691036197</v>
       </c>
       <c r="AD20" s="2">
-        <f t="shared" si="3"/>
-        <v>528.49940746602658</v>
+        <f t="shared" si="4"/>
+        <v>502.75996837946559</v>
       </c>
       <c r="AE20" s="2">
-        <f t="shared" si="3"/>
-        <v>533.78440154068687</v>
+        <f t="shared" si="4"/>
+        <v>507.78756806326027</v>
       </c>
       <c r="AF20" s="2">
-        <f t="shared" si="3"/>
-        <v>539.12224555609373</v>
+        <f t="shared" si="4"/>
+        <v>512.86544374389291</v>
       </c>
       <c r="AG20" s="2">
-        <f t="shared" si="3"/>
-        <v>544.51346801165471</v>
+        <f t="shared" si="4"/>
+        <v>517.99409818133188</v>
       </c>
       <c r="AH20" s="2">
-        <f t="shared" si="3"/>
-        <v>549.95860269177126</v>
+        <f t="shared" si="4"/>
+        <v>523.17403916314515</v>
       </c>
       <c r="AI20" s="2">
-        <f t="shared" si="3"/>
-        <v>555.45818871868903</v>
+        <f t="shared" si="4"/>
+        <v>528.40577955477659</v>
       </c>
       <c r="AJ20" s="2">
-        <f t="shared" si="3"/>
-        <v>561.01277060587597</v>
+        <f t="shared" si="4"/>
+        <v>533.68983735032441</v>
       </c>
       <c r="AK20" s="2">
-        <f t="shared" si="3"/>
-        <v>566.6228983119347</v>
+        <f t="shared" si="4"/>
+        <v>539.02673572382764</v>
       </c>
       <c r="AL20" s="2">
-        <f t="shared" si="3"/>
-        <v>572.28912729505407</v>
+        <f t="shared" si="4"/>
+        <v>544.4170030810659</v>
       </c>
       <c r="AM20" s="2">
-        <f t="shared" si="3"/>
-        <v>578.01201856800458</v>
+        <f t="shared" si="4"/>
+        <v>549.86117311187661</v>
       </c>
       <c r="AN20" s="2">
-        <f t="shared" si="3"/>
-        <v>583.79213875368464</v>
+        <f t="shared" si="4"/>
+        <v>555.3597848429954</v>
       </c>
       <c r="AO20" s="2">
-        <f t="shared" si="3"/>
-        <v>589.63006014122152</v>
+        <f t="shared" si="4"/>
+        <v>560.91338269142534</v>
       </c>
       <c r="AP20" s="2">
-        <f t="shared" si="3"/>
-        <v>595.52636074263376</v>
+        <f t="shared" si="4"/>
+        <v>566.52251651833956</v>
       </c>
       <c r="AQ20" s="2">
-        <f t="shared" si="3"/>
-        <v>601.48162435006009</v>
+        <f t="shared" si="4"/>
+        <v>572.18774168352297</v>
       </c>
       <c r="AR20" s="2">
-        <f t="shared" si="3"/>
-        <v>607.49644059356069</v>
+        <f t="shared" si="4"/>
+        <v>577.90961910035821</v>
       </c>
       <c r="AS20" s="2">
-        <f t="shared" si="3"/>
-        <v>613.57140499949628</v>
+        <f t="shared" si="4"/>
+        <v>583.68871529136175</v>
       </c>
       <c r="AT20" s="2">
-        <f t="shared" si="3"/>
-        <v>619.70711904949121</v>
+        <f t="shared" si="4"/>
+        <v>589.52560244427536</v>
       </c>
       <c r="AU20" s="2">
-        <f t="shared" si="3"/>
-        <v>625.90419023998618</v>
+        <f t="shared" si="4"/>
+        <v>595.42085846871817</v>
       </c>
       <c r="AV20" s="2">
-        <f t="shared" si="3"/>
-        <v>632.16323214238605</v>
+        <f t="shared" si="4"/>
+        <v>601.37506705340536</v>
       </c>
       <c r="AW20" s="2">
-        <f t="shared" si="3"/>
-        <v>638.48486446380991</v>
+        <f t="shared" si="4"/>
+        <v>607.38881772393938</v>
       </c>
       <c r="AX20" s="2">
-        <f t="shared" si="3"/>
-        <v>644.86971310844797</v>
+        <f t="shared" si="4"/>
+        <v>613.46270590117877</v>
       </c>
       <c r="AY20" s="2">
-        <f t="shared" si="3"/>
-        <v>651.31841023953245</v>
+        <f t="shared" si="4"/>
+        <v>619.59733296019056</v>
       </c>
       <c r="AZ20" s="2">
-        <f t="shared" si="3"/>
-        <v>657.83159434192783</v>
+        <f t="shared" si="4"/>
+        <v>625.79330628979244</v>
       </c>
       <c r="BA20" s="2">
-        <f t="shared" si="3"/>
-        <v>664.40991028534711</v>
+        <f t="shared" si="4"/>
+        <v>632.05123935269035</v>
       </c>
       <c r="BB20" s="2">
-        <f t="shared" si="3"/>
-        <v>671.0540093882006</v>
+        <f t="shared" si="4"/>
+        <v>638.37175174621723</v>
       </c>
       <c r="BC20" s="2">
-        <f t="shared" si="3"/>
-        <v>677.76454948208266</v>
+        <f t="shared" si="4"/>
+        <v>644.7554692636794</v>
       </c>
       <c r="BD20" s="2">
-        <f t="shared" si="3"/>
-        <v>684.54219497690349</v>
+        <f t="shared" si="4"/>
+        <v>651.2030239563162</v>
       </c>
       <c r="BE20" s="2">
-        <f t="shared" si="3"/>
-        <v>691.38761692667254</v>
+        <f t="shared" si="4"/>
+        <v>657.71505419587936</v>
       </c>
       <c r="BF20" s="2">
-        <f t="shared" si="3"/>
-        <v>698.30149309593924</v>
+        <f t="shared" si="4"/>
+        <v>664.29220473783812</v>
       </c>
       <c r="BG20" s="2">
-        <f t="shared" si="3"/>
-        <v>705.28450802689861</v>
+        <f t="shared" si="4"/>
+        <v>670.93512678521654</v>
       </c>
       <c r="BH20" s="2">
-        <f t="shared" si="3"/>
-        <v>712.33735310716759</v>
+        <f t="shared" si="4"/>
+        <v>677.64447805306872</v>
       </c>
       <c r="BI20" s="2">
-        <f t="shared" si="3"/>
-        <v>719.46072663823929</v>
+        <f t="shared" si="4"/>
+        <v>684.42092283359943</v>
       </c>
       <c r="BJ20" s="2">
-        <f t="shared" si="3"/>
-        <v>726.65533390462167</v>
+        <f t="shared" si="4"/>
+        <v>691.26513206193545</v>
       </c>
       <c r="BK20" s="2">
-        <f t="shared" si="3"/>
-        <v>733.92188724366792</v>
+        <f t="shared" si="4"/>
+        <v>698.17778338255482</v>
       </c>
       <c r="BL20" s="2">
-        <f t="shared" si="3"/>
-        <v>741.26110611610466</v>
+        <f t="shared" si="4"/>
+        <v>705.15956121638033</v>
       </c>
       <c r="BM20" s="2">
-        <f t="shared" si="3"/>
-        <v>748.67371717726576</v>
+        <f t="shared" si="4"/>
+        <v>712.21115682854418</v>
       </c>
       <c r="BN20" s="2">
-        <f t="shared" si="3"/>
-        <v>756.16045434903845</v>
+        <f t="shared" si="4"/>
+        <v>719.33326839682968</v>
       </c>
       <c r="BO20" s="2">
-        <f t="shared" si="3"/>
-        <v>763.72205889252882</v>
+        <f t="shared" si="4"/>
+        <v>726.52660108079795</v>
       </c>
       <c r="BP20" s="2">
-        <f t="shared" si="3"/>
-        <v>771.35927948145411</v>
+        <f t="shared" si="4"/>
+        <v>733.79186709160592</v>
       </c>
       <c r="BQ20" s="2">
-        <f t="shared" si="3"/>
-        <v>779.07287227626864</v>
+        <f t="shared" si="4"/>
+        <v>741.12978576252203</v>
       </c>
       <c r="BR20" s="2">
-        <f t="shared" si="3"/>
-        <v>786.86360099903129</v>
+        <f t="shared" si="4"/>
+        <v>748.54108362014722</v>
       </c>
       <c r="BS20" s="2">
-        <f t="shared" si="3"/>
-        <v>794.73223700902156</v>
+        <f t="shared" si="4"/>
+        <v>756.0264944563487</v>
       </c>
       <c r="BT20" s="2">
-        <f t="shared" si="3"/>
-        <v>802.67955937911177</v>
+        <f t="shared" si="4"/>
+        <v>763.58675940091223</v>
       </c>
       <c r="BU20" s="2">
-        <f t="shared" si="3"/>
-        <v>810.70635497290289</v>
+        <f t="shared" si="4"/>
+        <v>771.22262699492137</v>
       </c>
       <c r="BV20" s="2">
-        <f t="shared" si="3"/>
-        <v>818.81341852263188</v>
+        <f t="shared" si="4"/>
+        <v>778.93485326487064</v>
       </c>
       <c r="BW20" s="2">
-        <f t="shared" si="3"/>
-        <v>827.0015527078582</v>
+        <f t="shared" si="4"/>
+        <v>786.7242017975193</v>
       </c>
       <c r="BX20" s="2">
-        <f t="shared" si="3"/>
-        <v>835.27156823493681</v>
+        <f t="shared" si="4"/>
+        <v>794.59144381549447</v>
       </c>
       <c r="BY20" s="2">
-        <f t="shared" si="3"/>
-        <v>843.62428391728622</v>
+        <f t="shared" si="4"/>
+        <v>802.53735825364947</v>
       </c>
       <c r="BZ20" s="2">
-        <f t="shared" si="3"/>
-        <v>852.06052675645913</v>
+        <f t="shared" si="4"/>
+        <v>810.562731836186</v>
       </c>
       <c r="CA20" s="2">
-        <f t="shared" si="3"/>
-        <v>860.58113202402376</v>
+        <f t="shared" si="4"/>
+        <v>818.66835915454783</v>
       </c>
       <c r="CB20" s="2">
-        <f t="shared" si="3"/>
-        <v>869.18694334426402</v>
+        <f t="shared" si="4"/>
+        <v>826.85504274609332</v>
       </c>
       <c r="CC20" s="2">
-        <f t="shared" si="3"/>
-        <v>877.87881277770668</v>
+        <f t="shared" si="4"/>
+        <v>835.12359317355424</v>
       </c>
       <c r="CD20" s="2">
-        <f t="shared" si="3"/>
-        <v>886.65760090548372</v>
+        <f t="shared" si="4"/>
+        <v>843.47482910528981</v>
       </c>
       <c r="CE20" s="2">
-        <f t="shared" si="3"/>
-        <v>895.52417691453854</v>
+        <f t="shared" si="4"/>
+        <v>851.90957739634268</v>
       </c>
       <c r="CF20" s="2">
-        <f t="shared" si="3"/>
-        <v>904.47941868368389</v>
+        <f t="shared" si="4"/>
+        <v>860.42867317030607</v>
       </c>
       <c r="CG20" s="2">
-        <f t="shared" si="3"/>
-        <v>913.52421287052073</v>
+        <f t="shared" si="4"/>
+        <v>869.03295990200911</v>
       </c>
       <c r="CH20" s="2">
-        <f t="shared" si="3"/>
-        <v>922.659454999226</v>
+        <f t="shared" si="4"/>
+        <v>877.72328950102917</v>
       </c>
       <c r="CI20" s="2">
-        <f t="shared" si="3"/>
-        <v>931.88604954921823</v>
+        <f t="shared" si="4"/>
+        <v>886.50052239603951</v>
       </c>
       <c r="CJ20" s="2">
-        <f t="shared" ref="CJ20:CZ20" si="4">+CI20*(1+$AA$22)</f>
-        <v>941.20491004471046</v>
+        <f t="shared" si="4"/>
+        <v>895.36552761999997</v>
       </c>
       <c r="CK20" s="2">
         <f t="shared" si="4"/>
-        <v>950.61695914515758</v>
+        <v>904.3191828962</v>
       </c>
       <c r="CL20" s="2">
         <f t="shared" si="4"/>
-        <v>960.12312873660915</v>
+        <v>913.362374725162</v>
       </c>
       <c r="CM20" s="2">
         <f t="shared" si="4"/>
-        <v>969.72436002397524</v>
+        <v>922.49599847241359</v>
       </c>
       <c r="CN20" s="2">
-        <f t="shared" si="4"/>
-        <v>979.42160362421498</v>
+        <f t="shared" ref="CN20:DD20" si="5">+CM20*(1+$AE$22)</f>
+        <v>931.72095845713773</v>
       </c>
       <c r="CO20" s="2">
-        <f t="shared" si="4"/>
-        <v>989.2158196604571</v>
+        <f t="shared" si="5"/>
+        <v>941.03816804170913</v>
       </c>
       <c r="CP20" s="2">
-        <f t="shared" si="4"/>
-        <v>999.10797785706166</v>
+        <f t="shared" si="5"/>
+        <v>950.44854972212624</v>
       </c>
       <c r="CQ20" s="2">
-        <f t="shared" si="4"/>
-        <v>1009.0990576356323</v>
+        <f t="shared" si="5"/>
+        <v>959.9530352193475</v>
       </c>
       <c r="CR20" s="2">
-        <f t="shared" si="4"/>
-        <v>1019.1900482119887</v>
+        <f t="shared" si="5"/>
+        <v>969.55256557154098</v>
       </c>
       <c r="CS20" s="2">
-        <f t="shared" si="4"/>
-        <v>1029.3819486941086</v>
+        <f t="shared" si="5"/>
+        <v>979.2480912272564</v>
       </c>
       <c r="CT20" s="2">
-        <f t="shared" si="4"/>
-        <v>1039.6757681810498</v>
+        <f t="shared" si="5"/>
+        <v>989.04057213952899</v>
       </c>
       <c r="CU20" s="2">
-        <f t="shared" si="4"/>
-        <v>1050.0725258628602</v>
+        <f t="shared" si="5"/>
+        <v>998.93097786092426</v>
       </c>
       <c r="CV20" s="2">
-        <f t="shared" si="4"/>
-        <v>1060.5732511214887</v>
+        <f t="shared" si="5"/>
+        <v>1008.9202876395335</v>
       </c>
       <c r="CW20" s="2">
-        <f t="shared" si="4"/>
-        <v>1071.1789836327036</v>
+        <f t="shared" si="5"/>
+        <v>1019.0094905159289</v>
       </c>
       <c r="CX20" s="2">
-        <f t="shared" si="4"/>
-        <v>1081.8907734690306</v>
+        <f t="shared" si="5"/>
+        <v>1029.1995854210882</v>
       </c>
       <c r="CY20" s="2">
-        <f t="shared" si="4"/>
-        <v>1092.7096812037209</v>
+        <f t="shared" si="5"/>
+        <v>1039.491581275299</v>
       </c>
       <c r="CZ20" s="2">
-        <f t="shared" si="4"/>
-        <v>1103.6367780157582</v>
-      </c>
-    </row>
-    <row r="21" spans="2:104" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>1049.886497088052</v>
+      </c>
+      <c r="DA20" s="2">
+        <f t="shared" si="5"/>
+        <v>1060.3853620589325</v>
+      </c>
+      <c r="DB20" s="2">
+        <f t="shared" si="5"/>
+        <v>1070.9892156795217</v>
+      </c>
+      <c r="DC20" s="2">
+        <f t="shared" si="5"/>
+        <v>1081.6991078363169</v>
+      </c>
+      <c r="DD20" s="2">
+        <f t="shared" si="5"/>
+        <v>1092.51609891468</v>
+      </c>
+    </row>
+    <row r="21" spans="2:108" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>46</v>
       </c>
@@ -2384,34 +2482,38 @@
       </c>
       <c r="I21" s="6">
         <f>+I20/I22</f>
-        <v>3.2413795524845787E-2</v>
+        <v>-0.31255507922631021</v>
       </c>
       <c r="J21" s="6">
         <f>+J20/J22</f>
-        <v>9.5700045994445565E-2</v>
-      </c>
-      <c r="R21" s="23">
-        <f>+R20/R22</f>
-        <v>0.59880686546098016</v>
-      </c>
-      <c r="S21" s="23">
-        <f>+S20/S22</f>
-        <v>1.1690773154341212</v>
-      </c>
-      <c r="T21" s="23">
-        <f>+T20/T22</f>
-        <v>1.4347608892288735</v>
-      </c>
-      <c r="U21" s="23">
-        <f>+U20/U22</f>
-        <v>1.5738773292917034</v>
-      </c>
+        <v>-0.25665977893666575</v>
+      </c>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
       <c r="V21" s="23">
         <f>+V20/V22</f>
-        <v>1.7135927135203264</v>
-      </c>
-    </row>
-    <row r="22" spans="2:104" x14ac:dyDescent="0.2">
+        <v>0.53768695267145517</v>
+      </c>
+      <c r="W21" s="23">
+        <f>+W20/W22</f>
+        <v>1.0717040367017614</v>
+      </c>
+      <c r="X21" s="23">
+        <f>+X20/X22</f>
+        <v>1.3212518603020762</v>
+      </c>
+      <c r="Y21" s="23">
+        <f>+Y20/Y22</f>
+        <v>1.4526331338249043</v>
+      </c>
+      <c r="Z21" s="23">
+        <f>+Z20/Z22</f>
+        <v>1.5846451100576231</v>
+      </c>
+    </row>
+    <row r="22" spans="2:108" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>1</v>
       </c>
@@ -2426,59 +2528,62 @@
         <v>284.81700000000001</v>
       </c>
       <c r="J22" s="7">
-        <f>+I22</f>
-        <v>284.81700000000001</v>
-      </c>
-      <c r="R22" s="2">
+        <v>304.89</v>
+      </c>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="V22" s="2">
         <f>J22</f>
-        <v>284.81700000000001</v>
-      </c>
-      <c r="S22" s="2">
-        <f>+R22</f>
-        <v>284.81700000000001</v>
-      </c>
-      <c r="T22" s="2">
-        <f>+S22</f>
-        <v>284.81700000000001</v>
-      </c>
-      <c r="U22" s="2">
-        <f>+T22</f>
-        <v>284.81700000000001</v>
-      </c>
-      <c r="V22" s="2">
-        <f>+U22</f>
-        <v>284.81700000000001</v>
-      </c>
-      <c r="Z22" t="s">
+        <v>304.89</v>
+      </c>
+      <c r="W22" s="2">
+        <f>+V22</f>
+        <v>304.89</v>
+      </c>
+      <c r="X22" s="2">
+        <f>+W22</f>
+        <v>304.89</v>
+      </c>
+      <c r="Y22" s="2">
+        <f>+X22</f>
+        <v>304.89</v>
+      </c>
+      <c r="Z22" s="2">
+        <f>+Y22</f>
+        <v>304.89</v>
+      </c>
+      <c r="AD22" t="s">
         <v>72</v>
       </c>
-      <c r="AA22" s="25">
+      <c r="AE22" s="24">
         <v>0.01</v>
       </c>
     </row>
-    <row r="23" spans="2:104" x14ac:dyDescent="0.2">
-      <c r="Z23" t="s">
+    <row r="23" spans="2:108" x14ac:dyDescent="0.2">
+      <c r="AD23" t="s">
         <v>73</v>
       </c>
-      <c r="AA23" s="25">
+      <c r="AE23" s="24">
         <v>0.01</v>
       </c>
     </row>
-    <row r="24" spans="2:104" x14ac:dyDescent="0.2">
-      <c r="Z24" t="s">
+    <row r="24" spans="2:108" x14ac:dyDescent="0.2">
+      <c r="AD24" t="s">
         <v>74</v>
       </c>
-      <c r="AA24" s="25">
+      <c r="AE24" s="24">
         <v>0.09</v>
       </c>
     </row>
-    <row r="25" spans="2:104" x14ac:dyDescent="0.2">
-      <c r="Z25" t="s">
+    <row r="25" spans="2:108" x14ac:dyDescent="0.2">
+      <c r="AD25" t="s">
         <v>75</v>
       </c>
-      <c r="AA25" s="2">
-        <f>NPV(AA24,R20:CZ20)+Main!I5-Main!I6</f>
-        <v>5802.0111794442128</v>
+      <c r="AE25" s="2">
+        <f>NPV(AE24,V20:DD20)+Main!I5-Main!I6</f>
+        <v>5738.9429060401908</v>
       </c>
     </row>
   </sheetData>
@@ -2495,7 +2600,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD51A01D-9C2A-46BD-9B78-0DEFBECBAD8A}">
   <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
@@ -2602,47 +2707,44 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C15" s="24" t="s">
+      <c r="C15" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C16" s="24" t="s">
+      <c r="C16" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C17" s="24" t="s">
+      <c r="C17" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C18" s="24" t="s">
+      <c r="C18" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C19" s="24" t="s">
+      <c r="C19" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C20" s="24" t="s">
+      <c r="C20" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="21" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C21" s="24" t="s">
+      <c r="C21" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="22" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C22" s="24" t="s">
+      <c r="C22" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C23" s="24"/>
     </row>
     <row r="24" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
@@ -2693,7 +2795,7 @@
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C35" s="24" t="s">
+      <c r="C35" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2703,22 +2805,22 @@
       </c>
     </row>
     <row r="37" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C37" s="24" t="s">
+      <c r="C37" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="38" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C38" s="24" t="s">
+      <c r="C38" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="39" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C39" s="24" t="s">
+      <c r="C39" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="40" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C40" s="24" t="s">
+      <c r="C40" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2733,7 +2835,7 @@
       </c>
     </row>
     <row r="59" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C59" s="24" t="s">
+      <c r="C59" t="s">
         <v>68</v>
       </c>
     </row>
